--- a/biology/Médecine/Gastrite/Gastrite.xlsx
+++ b/biology/Médecine/Gastrite/Gastrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une gastrite est une maladie inflammatoire de la paroi de l'estomac.
 Le diagnostic positif de la gastrite est anatomopathologique.
-Les causes de la gastrite sont nombreuses[1] ; la gastrite peut être causée par une consommation excessive d'alcool, la consommation prolongée d'anti-inflammatoires non stéroïdiens, le stress ou encore par une infection bactérienne, notamment à Helicobacter pylori.
+Les causes de la gastrite sont nombreuses ; la gastrite peut être causée par une consommation excessive d'alcool, la consommation prolongée d'anti-inflammatoires non stéroïdiens, le stress ou encore par une infection bactérienne, notamment à Helicobacter pylori.
 Le symptôme de gastrite le plus fréquent est la douleur abdominale, associée à une sensation de malaise. D'autres symptômes peuvent être associés, comme l'indigestion, nausées, vomissements, sensation de ballonnement. Une hématémèse est un signe de gravité et peut évoquer une hémorragie digestive, mais aucun de ces signes ne peut être considéré comme spécifique.  
 Une évolution vers le cancer gastrique est rare mais possible.
 </t>
@@ -515,7 +527,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Principales causes de gastrite :
 sécrétions acides gastriques accrues (favorisées par le stress) ;
@@ -527,7 +541,7 @@
 maladie de Biermer ;
 radiothérapie ou irradiation accidentelle ;
 chirurgie ou traumatisme gastrique ;
-reflux biliaire (duodéno-gastrique)[2] ;
+reflux biliaire (duodéno-gastrique) ;
 infection fongique, notamment chez la personne immunodéprimée ;
 infestation parasitaire, le plus souvent par les espèces Anisakis ;
 traitement antibiotique, par exemple contre l'acné.</t>
@@ -558,7 +572,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dyspepsie, douleur ou simple inconfort épigastrique ou abdominal, perte d'appétit, éructation, nausée, vomissement, asthénie.
 Une hémorragie digestive avec hématémèse peut s'observer dans les formes graves.
@@ -590,7 +606,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La gastrite peut se diagnostiquer grâce à la clinique ou par endoscopie des voies digestives (gastroscopie).
 Les diagnostics différentiels sont l'ulcère gastro-duodénal et le cancer de l'estomac.
@@ -622,7 +640,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement consiste à supprimer ou à amoindrir la cause par des mesures hygiéno-diététiques.
 L'administration d'un inhibiteur de la pompe à protons afin de réduire l'acidité gastrique est souvent nécessaire, ainsi qu'une antibiothérapie en cas d'infection à Helicobacter pylori.
